--- a/graphs/graph-ai-data.xlsx
+++ b/graphs/graph-ai-data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alissaji/Documents/Senior/AAPI Data/blog_housing/graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6B8AFB-19DB-8342-88BA-DAD60E43A508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C44BBE-A008-774A-AC9A-340B971C7FC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="940" windowWidth="17340" windowHeight="15220" activeTab="1" xr2:uid="{681B30ED-BDA1-2646-938B-BFCA99EE027F}"/>
+    <workbookView xWindow="11460" yWindow="940" windowWidth="17340" windowHeight="15220" activeTab="4" xr2:uid="{681B30ED-BDA1-2646-938B-BFCA99EE027F}"/>
   </bookViews>
   <sheets>
     <sheet name="household-race" sheetId="1" r:id="rId1"/>
     <sheet name="race+gender" sheetId="2" r:id="rId2"/>
-    <sheet name="race+ctz" sheetId="3" r:id="rId3"/>
+    <sheet name="race+citz-ph" sheetId="4" r:id="rId3"/>
+    <sheet name="race+ctz" sheetId="3" r:id="rId4"/>
+    <sheet name="citz2" sheetId="5" r:id="rId5"/>
+    <sheet name="race+ctz2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
   <si>
     <t>group</t>
   </si>
@@ -108,6 +111,45 @@
   </si>
   <si>
     <t>≥1 citizen (not householder)</t>
+  </si>
+  <si>
+    <t>No citizens in household</t>
+  </si>
+  <si>
+    <t>At least 1 citizen, but not householder</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>CI_lb</t>
+  </si>
+  <si>
+    <t>CI_ub</t>
+  </si>
+  <si>
+    <t>MOE_prop</t>
+  </si>
+  <si>
+    <t>White alone (Non-Hispanic)*</t>
+  </si>
+  <si>
+    <t>At least 1 citizen (but not all members)</t>
+  </si>
+  <si>
+    <t>No citizens</t>
+  </si>
+  <si>
+    <t>All members are citizens</t>
+  </si>
+  <si>
+    <t>All citizen members</t>
+  </si>
+  <si>
+    <t>At least 1 citizen, but not all members</t>
   </si>
 </sst>
 </file>
@@ -571,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3ABADA1-B0AF-684C-AF30-C3302117E59A}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,11 +715,362 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF52A06A-41B6-B646-8202-4E252D2E49D9}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="4" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>75.373635534999195</v>
+      </c>
+      <c r="C2">
+        <v>8.4380007452774297</v>
+      </c>
+      <c r="D2">
+        <v>16.188363719723402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>97.865570943025006</v>
+      </c>
+      <c r="C3">
+        <v>1.38482783246757</v>
+      </c>
+      <c r="D3">
+        <v>0.74960122450744704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>84.606308454317102</v>
+      </c>
+      <c r="C4">
+        <v>10.829189358574199</v>
+      </c>
+      <c r="D4">
+        <v>4.5645021871086398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>93.6569829786811</v>
+      </c>
+      <c r="C5">
+        <v>3.6199575625210998</v>
+      </c>
+      <c r="D5">
+        <v>2.7230594587978598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>75.373635534999195</v>
+      </c>
+      <c r="E16">
+        <v>0.63530381942896996</v>
+      </c>
+      <c r="F16">
+        <v>0.87216889127101405</v>
+      </c>
+      <c r="G16">
+        <v>0.118432535921022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>16.188363719723402</v>
+      </c>
+      <c r="E17">
+        <v>5.8004807743256503E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.265762466651211</v>
+      </c>
+      <c r="G17">
+        <v>0.103878829453977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>8.4380007452774297</v>
+      </c>
+      <c r="E18">
+        <v>1.0681391517469401E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.15807862338807899</v>
+      </c>
+      <c r="G18">
+        <v>7.3698615935304995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>97.865570943025006</v>
+      </c>
+      <c r="E19">
+        <v>0.96393852063913399</v>
+      </c>
+      <c r="F19">
+        <v>0.99337289822136599</v>
+      </c>
+      <c r="G19">
+        <v>1.47171887911158E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>0.74960122450744704</v>
+      </c>
+      <c r="E20">
+        <v>8.71225822354085E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.4120798667794801E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.6247864227203801E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>1.38482783246757</v>
+      </c>
+      <c r="E21">
+        <v>6.2991595573101699E-4</v>
+      </c>
+      <c r="F21">
+        <v>2.70666406936203E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.32183623689446E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>84.606308454317102</v>
+      </c>
+      <c r="E22">
+        <v>0.79539823374390095</v>
+      </c>
+      <c r="F22">
+        <v>0.896727935342442</v>
+      </c>
+      <c r="G22">
+        <v>5.0664850799270501E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>4.5645021871086398</v>
+      </c>
+      <c r="E23">
+        <v>2.0363359619714302E-2</v>
+      </c>
+      <c r="F23">
+        <v>7.0926684122458603E-2</v>
+      </c>
+      <c r="G23">
+        <v>2.5281662251372201E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>10.829189358574199</v>
+      </c>
+      <c r="E24">
+        <v>6.2907747112192394E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.153676040059292</v>
+      </c>
+      <c r="G24">
+        <v>4.5384146473549797E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>93.6569829786811</v>
+      </c>
+      <c r="E25">
+        <v>0.91669554963559097</v>
+      </c>
+      <c r="F25">
+        <v>0.95644410993802997</v>
+      </c>
+      <c r="G25">
+        <v>1.98742801512195E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>2.7230594587978598</v>
+      </c>
+      <c r="E26">
+        <v>1.45165297387926E-2</v>
+      </c>
+      <c r="F26">
+        <v>3.9944659437164499E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.2714064849186E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>3.6199575625210998</v>
+      </c>
+      <c r="E27">
+        <v>2.05786370731454E-2</v>
+      </c>
+      <c r="F27">
+        <v>5.1820514177276497E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.56209385520655E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A16:G27">
+    <sortCondition ref="A16:A27"/>
+    <sortCondition ref="B16:B27" customList="Householder is citizen,At least 1 citizen,but not householder,No citizens in household"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A45AAD7-501F-C34A-8284-7EA34FEBAC5A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,14 +1096,14 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.18634022886977</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.06837390156471</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.5938237659051402</v>
+      <c r="B2">
+        <v>1.1836305152490101</v>
+      </c>
+      <c r="C2">
+        <v>1.0823305534188501</v>
+      </c>
+      <c r="D2">
+        <v>1.5526398889558601</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -718,10 +1111,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.65463847143079901</v>
+        <v>0.77411274403421104</v>
       </c>
       <c r="C3">
-        <v>18.6409894249011</v>
+        <v>20.291236945985201</v>
       </c>
       <c r="D3">
         <v>3.0169473977190502</v>
@@ -732,13 +1125,13 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>6.3040637536282809</v>
+        <v>6.6454086314627601</v>
       </c>
       <c r="C4">
-        <v>2.91540516857133</v>
+        <v>3.2608530036575401</v>
       </c>
       <c r="D4">
-        <v>2.0477543648243501</v>
+        <v>2.12497832389912</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -760,13 +1153,13 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>3.61974594359712</v>
-      </c>
-      <c r="C6">
-        <v>1.70837381304325</v>
+        <v>4.7615455499993296</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>1.22554393367943</v>
+        <v>1.3858384929262699</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -774,13 +1167,13 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>1.75760859623348</v>
+        <v>1.9837021816403499</v>
       </c>
       <c r="C7">
-        <v>0.89629263662379799</v>
+        <v>1.0455076788114401</v>
       </c>
       <c r="D7">
-        <v>1.48118821961018</v>
+        <v>1.5049919478500999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -792,4 +1185,397 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D362C0-8892-CA4D-982B-8402542F3439}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1">
+        <v>2.0150540189858801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1.30989300775442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1.5835713942226999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92CFDD2-C3DA-F042-B376-B8C48459CE29}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>68.364391817977705</v>
+      </c>
+      <c r="C2">
+        <v>15.447244462298901</v>
+      </c>
+      <c r="D2">
+        <v>16.188363719723402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>80.029734214556697</v>
+      </c>
+      <c r="C3">
+        <v>15.405763598334701</v>
+      </c>
+      <c r="D3">
+        <v>4.5645021871086398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>91.4271115691662</v>
+      </c>
+      <c r="C4">
+        <v>5.8498289720360006</v>
+      </c>
+      <c r="D4">
+        <v>2.7230594587978598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>96.5103034903496</v>
+      </c>
+      <c r="C5">
+        <v>2.7400952851429801</v>
+      </c>
+      <c r="D5">
+        <v>0.74960122450744704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15">
+        <v>68.364391817977705</v>
+      </c>
+      <c r="E15">
+        <v>0.557131838964943</v>
+      </c>
+      <c r="F15">
+        <v>0.81015599739461197</v>
+      </c>
+      <c r="G15">
+        <v>0.12651207921483501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>15.447244462298901</v>
+      </c>
+      <c r="E16">
+        <v>5.8194477308256498E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.25075041193772102</v>
+      </c>
+      <c r="G16">
+        <v>9.6277967314732496E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>16.188363719723402</v>
+      </c>
+      <c r="E17">
+        <v>5.8004807743256503E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.265762466651211</v>
+      </c>
+      <c r="G17">
+        <v>0.103878829453977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>96.5103034903496</v>
+      </c>
+      <c r="E18">
+        <v>0.94577250885048103</v>
+      </c>
+      <c r="F18">
+        <v>0.98443356095651002</v>
+      </c>
+      <c r="G18">
+        <v>1.9330526053014201E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>2.7400952851429801</v>
+      </c>
+      <c r="E19">
+        <v>9.1340369696799907E-3</v>
+      </c>
+      <c r="F19">
+        <v>4.5667868733179601E-2</v>
+      </c>
+      <c r="G19">
+        <v>1.82669158817498E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>0.74960122450744704</v>
+      </c>
+      <c r="E20">
+        <v>8.71225822354085E-4</v>
+      </c>
+      <c r="F20">
+        <v>1.4120798667794801E-2</v>
+      </c>
+      <c r="G20">
+        <v>6.6247864227203801E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>80.029734214556697</v>
+      </c>
+      <c r="E21">
+        <v>0.743967116987863</v>
+      </c>
+      <c r="F21">
+        <v>0.85662756730327105</v>
+      </c>
+      <c r="G21">
+        <v>5.6330225157704097E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <v>15.405763598334701</v>
+      </c>
+      <c r="E22">
+        <v>0.10198387796878799</v>
+      </c>
+      <c r="F22">
+        <v>0.206131393997905</v>
+      </c>
+      <c r="G22">
+        <v>5.2073758014558498E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>4.5645021871086398</v>
+      </c>
+      <c r="E23">
+        <v>2.0363359619714302E-2</v>
+      </c>
+      <c r="F23">
+        <v>7.0926684122458603E-2</v>
+      </c>
+      <c r="G23">
+        <v>2.5281662251372201E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>91.4271115691662</v>
+      </c>
+      <c r="E24">
+        <v>0.89119987496130004</v>
+      </c>
+      <c r="F24">
+        <v>0.93734235642202302</v>
+      </c>
+      <c r="G24">
+        <v>2.3071240730361001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>5.8498289720360006</v>
+      </c>
+      <c r="E25">
+        <v>3.88004964422154E-2</v>
+      </c>
+      <c r="F25">
+        <v>7.8196082998504599E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.9697793278144599E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>2.7230594587978598</v>
+      </c>
+      <c r="E26">
+        <v>1.45165297387926E-2</v>
+      </c>
+      <c r="F26">
+        <v>3.9944659437164499E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.2714064849186E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A15:G26">
+    <sortCondition ref="A15:A26"/>
+    <sortCondition ref="B15:B26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>